--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView windowWidth="12562" windowHeight="12307"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
   </si>
   <si>
-    <t>鳄鱼</t>
+    <t>野狼</t>
   </si>
   <si>
     <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
@@ -657,8 +657,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -687,14 +687,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,8 +708,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -731,6 +769,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -745,48 +791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,33 +807,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,7 +852,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,43 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,97 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,69 +1057,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,6 +1087,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1158,162 +1143,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,8 +1731,8 @@
   <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3520,7 +3520,7 @@
       <c r="A79" s="3">
         <v>75</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C79" s="3">

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="12562" windowHeight="12307"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="201">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -248,419 +253,420 @@
     <t>降龙十八掌</t>
   </si>
   <si>
+    <t>葵花神功</t>
+  </si>
+  <si>
+    <t>化功大法</t>
+  </si>
+  <si>
+    <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
+  </si>
+  <si>
+    <t>吸星大法</t>
+  </si>
+  <si>
+    <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
+  </si>
+  <si>
+    <t>北冥神功</t>
+  </si>
+  <si>
+    <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
+  </si>
+  <si>
+    <t>六脉神剑</t>
+  </si>
+  <si>
+    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
+  </si>
+  <si>
+    <t>躺尸剑法</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|24,1,0,0,0|28,1,0,0,0|31,1,0,0,0|33,1,0,0,0|35,1,0,0,0|37,1,0,0,0|800,1,0,0,0</t>
+  </si>
+  <si>
+    <t>青城剑法</t>
+  </si>
+  <si>
+    <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|34,1,0,0,0|38,1,0,0,0|42,1,0,0,0|45,1,0,0,0|48,1,0,0,0|81,1,0,0,0</t>
+  </si>
+  <si>
+    <t>冰雪剑法</t>
+  </si>
+  <si>
+    <t>恒山剑法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|26,1,0,0,0|32,1,0,0,0|37,1,0,0,0|42,1,0,0,0|46,2,0,0,0|50,2,0,0,0|53,2,0,0,0|56,2,0,0,0|98,3,0,0,0</t>
+  </si>
+  <si>
+    <t>泰山剑法</t>
+  </si>
+  <si>
+    <t>衡山剑法</t>
+  </si>
+  <si>
+    <t>华山剑法</t>
+  </si>
+  <si>
+    <t>21,1,0,0,0|28,1,0,0,0|35,1,0,0,0|42,1,0,0,0|48,1,0,0,0|54,2,0,0,0|59,2,0,0,0|64,2,0,0,0|68,2,0,0,0|100,3,0,0,0</t>
+  </si>
+  <si>
+    <t>嵩山剑法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|150,3,0,0,0</t>
+  </si>
+  <si>
+    <t>全真剑法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|200,4,0,0,0</t>
+  </si>
+  <si>
+    <t>峨嵋剑法</t>
+  </si>
+  <si>
+    <t>25,1,0,0,0|35,1,0,0,0|44,1,0,0,0|52,1,0,0,0|59,1,0,0,0|65,2,0,0,0|70,2,0,0,0|74,2,0,0,0|77,2,0,0,0|130,3,0,0,0</t>
+  </si>
+  <si>
+    <t>武当剑法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0</t>
+  </si>
+  <si>
+    <t>万花剑法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>泼墨剑法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>雪山剑法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|50,1,0,0,0|70,1,0,0,0|90,1,0,0,0|100,1,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|130,3,0,0,0|200,3,0,0,0</t>
+  </si>
+  <si>
+    <t>泰山十八盘</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
+  </si>
+  <si>
+    <t>回峰落雁剑</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
+  </si>
+  <si>
+    <t>两仪剑法</t>
+  </si>
+  <si>
+    <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>太岳三青峰</t>
+  </si>
+  <si>
+    <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
+  </si>
+  <si>
+    <t>玉女素心剑</t>
+  </si>
+  <si>
+    <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
+  </si>
+  <si>
+    <t>逍遥剑法</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|80,1,0,0,0|110,1,0,0,0|130,1,0,0,0|150,1,0,0,0|160,1,0,0,0|170,1,0,0,0|180,1,0,0,0|190,1,0,0,0|300,1,0,0,0</t>
+  </si>
+  <si>
+    <t>慕容剑法</t>
+  </si>
+  <si>
+    <t>20,2,0,0,0|40,2,0,0,0|60,3,0,0,0|80,3,0,0,0|100,3,0,0,0|120,4,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|350,5,0,0,0</t>
+  </si>
+  <si>
+    <t>倚天剑法</t>
+  </si>
+  <si>
+    <t>25,1,0,0,0|50,1,0,0,0|75,1,0,0,0|100,3,1,0,0|125,3,1,0,0|150,3,1,0,0|175,5,2,0,0|200,5,2,0,0|225,5,2,0,0|400,7,3,0,0</t>
+  </si>
+  <si>
+    <t>七星剑法</t>
+  </si>
+  <si>
+    <t>70,2,0,0,0|95,2,0,0,0|115,2,0,0,0|135,3,0,0,0|155,3,0,0,0|180,3,0,0,0|210,3,0,0,0|240,3,0,0,0|270,4,0,0,0|450,4,0,0,0</t>
+  </si>
+  <si>
+    <t>金蛇剑法</t>
+  </si>
+  <si>
+    <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
+  </si>
+  <si>
+    <t>苗家剑法</t>
+  </si>
+  <si>
+    <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
+  </si>
+  <si>
+    <t>玉箫剑法</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
+  </si>
+  <si>
+    <t>玄铁剑法</t>
+  </si>
+  <si>
+    <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
+  </si>
+  <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,2,0,0,0|400,3,0,0,0|450,3,0,0,0|650,3,0,0,0</t>
+  </si>
+  <si>
+    <t>达摩剑法</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|100,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0|350,4,0,0,0|400,4,0,0,0|450,5,0,0,0|600,5,0,0,0</t>
+  </si>
+  <si>
+    <t>辟邪剑法</t>
+  </si>
+  <si>
+    <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
+  </si>
+  <si>
+    <t>独孤九剑</t>
+  </si>
+  <si>
+    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
+  </si>
+  <si>
+    <t>西瓜刀法</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|35,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|740,1,0,0,0</t>
+  </si>
+  <si>
+    <t>血刀大法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
+  </si>
+  <si>
+    <t>狂风刀法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>反两仪刀法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>火焰刀法</t>
+  </si>
+  <si>
+    <t>40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,4,0,0,0|180,4,0,0,0|200,4,0,0,0|300,5,0,0,0</t>
+  </si>
+  <si>
+    <t>胡家刀法</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
+  </si>
+  <si>
+    <t>霹雳刀法</t>
+  </si>
+  <si>
+    <t>神龙双勾</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
+  </si>
+  <si>
+    <t>大轮杖法</t>
+  </si>
+  <si>
+    <t>怪异武器</t>
+  </si>
+  <si>
+    <t>炼心弹</t>
+  </si>
+  <si>
+    <t>5,2,0,0,0|10,2,0,0,0|15,2,0,0,0|20,3,0,0,0|25,3,0,0,0|30,3,0,0,0|35,3,0,0,0|40,4,0,0,0|45,4,0,0,0|100,4,0,0,0</t>
+  </si>
+  <si>
+    <t>叫化棍法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|200,1,0,0,0</t>
+  </si>
+  <si>
+    <t>火焰发射器</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
+  </si>
+  <si>
+    <t>大蜘珠</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
+  </si>
+  <si>
+    <t>毒龙鞭法</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|40,2,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|200,3,0,0,0</t>
+  </si>
+  <si>
+    <t>黄沙万里鞭</t>
+  </si>
+  <si>
+    <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
+  </si>
+  <si>
+    <t>雪怪</t>
+  </si>
+  <si>
+    <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
+  </si>
+  <si>
+    <t>判官笔</t>
+  </si>
+  <si>
+    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
+  </si>
+  <si>
+    <t>持棋盘</t>
+  </si>
+  <si>
+    <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
+  </si>
+  <si>
+    <t>大剪刀</t>
+  </si>
+  <si>
+    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
+  </si>
+  <si>
+    <t>持瑶琴</t>
+  </si>
+  <si>
+    <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
+  </si>
+  <si>
+    <t>大蟒蛇</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
+  </si>
+  <si>
+    <t>金花杖法</t>
+  </si>
+  <si>
+    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
+  </si>
+  <si>
+    <t>神龙鹿杖</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,1,0,0|240,4,1,0,0|270,5,1,0,0|450,5,1,0,0</t>
+  </si>
+  <si>
+    <t>打狗棍法</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
+  </si>
+  <si>
+    <t>五轮大法</t>
+  </si>
+  <si>
+    <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
+  </si>
+  <si>
+    <t>松风剑法</t>
+  </si>
+  <si>
+    <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|50,1,0,0,0|90,1,0,0,0|120,1,0,0,0|200,1,0,0,0|300,1,0,0,0</t>
+  </si>
+  <si>
+    <t>狮子吼</t>
+  </si>
+  <si>
+    <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
+  </si>
+  <si>
+    <t>九阳神功</t>
+  </si>
+  <si>
+    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
+    <t>用毒</t>
+  </si>
+  <si>
+    <t>解毒</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>莽牯朱蛤</t>
+  </si>
+  <si>
+    <t>暗器</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
-  </si>
-  <si>
-    <t>葵花神功</t>
-  </si>
-  <si>
-    <t>100,2,1,0,0,0|200,2,1,0,0,0|300,2,1,0,0,0|400,3,2,0,0,0|500,3,2,0,0,0|600,3,2,0,0,0|700,4,3,0,0,0|800,4,3,0,0,0|900,4,3,0,0,0|1300,5,3,0,0,0</t>
-  </si>
-  <si>
-    <t>化功大法</t>
-  </si>
-  <si>
-    <t>0,1,0,0,5|0,1,0,0,10|0,1,0,0,15|0,1,0,0,20|0,1,0,0,25|0,1,0,0,30|0,1,0,0,35|0,1,0,0,40|0,1,0,0,45|0,1,0,0,70</t>
-  </si>
-  <si>
-    <t>吸星大法</t>
-  </si>
-  <si>
-    <t>0,1,0,5,10|0,1,0,8,15|0,1,0,10,20|0,1,0,13,25|0,1,0,15,30|0,1,0,18,35|0,1,0,20,40|0,1,0,23,45|0,1,0,25,50|0,1,0,45,80</t>
-  </si>
-  <si>
-    <t>北冥神功</t>
-  </si>
-  <si>
-    <t>0,1,0,10,10|0,1,0,15,15|0,1,0,20,20|0,1,0,25,25|0,1,0,30,30|0,1,0,35,35|0,1,0,40,40|0,1,0,45,45|0,1,0,50,50|0,1,0,100,100</t>
-  </si>
-  <si>
-    <t>六脉神剑</t>
-  </si>
-  <si>
-    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
-  </si>
-  <si>
-    <t>躺尸剑法</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|24,1,0,0,0|28,1,0,0,0|31,1,0,0,0|33,1,0,0,0|35,1,0,0,0|37,1,0,0,0|800,1,0,0,0</t>
-  </si>
-  <si>
-    <t>青城剑法</t>
-  </si>
-  <si>
-    <t>15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|34,1,0,0,0|38,1,0,0,0|42,1,0,0,0|45,1,0,0,0|48,1,0,0,0|81,1,0,0,0</t>
-  </si>
-  <si>
-    <t>冰雪剑法</t>
-  </si>
-  <si>
-    <t>恒山剑法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|26,1,0,0,0|32,1,0,0,0|37,1,0,0,0|42,1,0,0,0|46,2,0,0,0|50,2,0,0,0|53,2,0,0,0|56,2,0,0,0|98,3,0,0,0</t>
-  </si>
-  <si>
-    <t>泰山剑法</t>
-  </si>
-  <si>
-    <t>衡山剑法</t>
-  </si>
-  <si>
-    <t>华山剑法</t>
-  </si>
-  <si>
-    <t>21,1,0,0,0|28,1,0,0,0|35,1,0,0,0|42,1,0,0,0|48,1,0,0,0|54,2,0,0,0|59,2,0,0,0|64,2,0,0,0|68,2,0,0,0|100,3,0,0,0</t>
-  </si>
-  <si>
-    <t>嵩山剑法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|150,3,0,0,0</t>
-  </si>
-  <si>
-    <t>全真剑法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|200,4,0,0,0</t>
-  </si>
-  <si>
-    <t>峨嵋剑法</t>
-  </si>
-  <si>
-    <t>25,1,0,0,0|35,1,0,0,0|44,1,0,0,0|52,1,0,0,0|59,1,0,0,0|65,2,0,0,0|70,2,0,0,0|74,2,0,0,0|77,2,0,0,0|130,3,0,0,0</t>
-  </si>
-  <si>
-    <t>武当剑法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0</t>
-  </si>
-  <si>
-    <t>万花剑法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>泼墨剑法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>雪山剑法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|50,1,0,0,0|70,1,0,0,0|90,1,0,0,0|100,1,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|130,3,0,0,0|200,3,0,0,0</t>
-  </si>
-  <si>
-    <t>泰山十八盘</t>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,3,0,0,0|110,3,0,0,0|120,3,0,0,0|125,4,0,0,0|130,4,0,0,0|300,4,0,0,0</t>
-  </si>
-  <si>
-    <t>回峰落雁剑</t>
-  </si>
-  <si>
-    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
-  </si>
-  <si>
-    <t>两仪剑法</t>
-  </si>
-  <si>
-    <t>60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|130,1,0,0,0|140,2,0,0,0|150,2,0,0,0|160,2,0,0,0|170,3,0,0,0|180,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>太岳三青峰</t>
-  </si>
-  <si>
-    <t>65,2,0,0,0|100,2,0,0,0|140,3,0,0,0|170,3,0,0,0|190,4,0,0,0|200,4,0,0,0|210,5,0,0,0|220,5,0,0,0|230,6,0,0,0|300,6,0,0,0</t>
-  </si>
-  <si>
-    <t>玉女素心剑</t>
-  </si>
-  <si>
-    <t>70,1,0,0,0|110,1,0,0,0|150,1,0,0,0|175,1,0,0,0|195,2,0,0,0|205,2,0,0,0|215,2,0,0,0|225,2,0,0,0|235,3,0,0,0|400,3,0,0,0</t>
-  </si>
-  <si>
-    <t>逍遥剑法</t>
-  </si>
-  <si>
-    <t>40,1,0,0,0|80,1,0,0,0|110,1,0,0,0|130,1,0,0,0|150,1,0,0,0|160,1,0,0,0|170,1,0,0,0|180,1,0,0,0|190,1,0,0,0|300,1,0,0,0</t>
-  </si>
-  <si>
-    <t>慕容剑法</t>
-  </si>
-  <si>
-    <t>20,2,0,0,0|40,2,0,0,0|60,3,0,0,0|80,3,0,0,0|100,3,0,0,0|120,4,0,0,0|140,4,0,0,0|160,4,0,0,0|180,5,0,0,0|350,5,0,0,0</t>
-  </si>
-  <si>
-    <t>倚天剑法</t>
-  </si>
-  <si>
-    <t>25,1,0,0,0|50,1,0,0,0|75,1,0,0,0|100,3,1,0,0|125,3,1,0,0|150,3,1,0,0|175,5,2,0,0|200,5,2,0,0|225,5,2,0,0|400,7,3,0,0</t>
-  </si>
-  <si>
-    <t>七星剑法</t>
-  </si>
-  <si>
-    <t>70,2,0,0,0|95,2,0,0,0|115,2,0,0,0|135,3,0,0,0|155,3,0,0,0|180,3,0,0,0|210,3,0,0,0|240,3,0,0,0|270,4,0,0,0|450,4,0,0,0</t>
-  </si>
-  <si>
-    <t>金蛇剑法</t>
-  </si>
-  <si>
-    <t>80,2,0,0,0|120,2,0,0,0|160,3,0,0,0|190,3,0,0,0|220,4,0,0,0|240,4,0,0,0|260,5,0,0,0|280,5,0,0,0|290,6,0,0,0|400,6,0,0,0</t>
-  </si>
-  <si>
-    <t>苗家剑法</t>
-  </si>
-  <si>
-    <t>60,2,0,0,0|120,2,0,0,0|170,2,0,0,0|210,2,0,0,0|240,3,0,0,0|260,3,0,0,0|280,3,0,0,0|300,4,0,0,0|310,4,0,0,0|500,5,0,0,0</t>
-  </si>
-  <si>
-    <t>玉箫剑法</t>
-  </si>
-  <si>
-    <t>40,1,0,0,0|80,1,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,0,0,0|240,3,0,0,0|280,4,0,0,0|320,4,0,0,0|360,5,0,0,0|600,5,0,0,0</t>
-  </si>
-  <si>
-    <t>玄铁剑法</t>
-  </si>
-  <si>
-    <t>60,3,0,0,0|90,3,0,0,0|120,3,0,0,0|150,3,0,0,0|200,3,0,0,0|250,5,0,0,0|300,5,0,0,0|400,5,0,0,0|500,5,0,0,0|700,7,0,0,0</t>
-  </si>
-  <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,2,0,0,0|300,2,0,0,0|350,2,0,0,0|400,3,0,0,0|450,3,0,0,0|650,3,0,0,0</t>
-  </si>
-  <si>
-    <t>达摩剑法</t>
-  </si>
-  <si>
-    <t>50,2,0,0,0|100,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,3,0,0,0|300,4,0,0,0|350,4,0,0,0|400,4,0,0,0|450,5,0,0,0|600,5,0,0,0</t>
-  </si>
-  <si>
-    <t>辟邪剑法</t>
-  </si>
-  <si>
-    <t>100,1,0,0,0|200,1,0,0,0|300,1,0,0,0|400,1,0,0,0|500,1,0,0,0|600,1,0,0,0|700,1,0,0,0|800,1,0,0,0|900,1,0,0,0|1200,1,0,0,0</t>
-  </si>
-  <si>
-    <t>独孤九剑</t>
-  </si>
-  <si>
-    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
-  </si>
-  <si>
-    <t>西瓜刀法</t>
-  </si>
-  <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|35,1,0,0,0|40,1,0,0,0|80,1,0,0,0|160,1,0,0,0|320,1,0,0,0|740,1,0,0,0</t>
-  </si>
-  <si>
-    <t>血刀大法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|50,1,0,0,0|55,1,0,0,0|60,1,0,0,0|200,1,0,0,0</t>
-  </si>
-  <si>
-    <t>狂风刀法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,2,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>反两仪刀法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,2,0,0,0|120,2,0,0,0|135,2,0,0,0|150,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>火焰刀法</t>
-  </si>
-  <si>
-    <t>40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,4,0,0,0|180,4,0,0,0|200,4,0,0,0|300,5,0,0,0</t>
-  </si>
-  <si>
-    <t>胡家刀法</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,3,0,0,0|270,3,0,0,0|400,3,0,0,0</t>
-  </si>
-  <si>
-    <t>霹雳刀法</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0,0|220,3,1,0,0,0|290,5,2,0,0,0|370,5,2,0,0,0|500,7,3,0,0,0</t>
-  </si>
-  <si>
-    <t>神龙双勾</t>
-  </si>
-  <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|100,1,0,0,0</t>
-  </si>
-  <si>
-    <t>大轮杖法</t>
-  </si>
-  <si>
-    <t>怪异武器</t>
-  </si>
-  <si>
-    <t>炼心弹</t>
-  </si>
-  <si>
-    <t>5,2,0,0,0|10,2,0,0,0|15,2,0,0,0|20,3,0,0,0|25,3,0,0,0|30,3,0,0,0|35,3,0,0,0|40,4,0,0,0|45,4,0,0,0|100,4,0,0,0</t>
-  </si>
-  <si>
-    <t>叫化棍法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|200,1,0,0,0</t>
-  </si>
-  <si>
-    <t>火焰发射器</t>
-  </si>
-  <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,2,0,0,0|25,2,0,0,0|30,2,0,0,0|35,3,0,0,0|40,3,0,0,0|45,3,0,0,0|100,4,0,0,0</t>
-  </si>
-  <si>
-    <t>野狼</t>
-  </si>
-  <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
-  </si>
-  <si>
-    <t>大蜘珠</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|20,1,0,0,0|30,1,0,0,0|40,1,0,0,0|50,1,0,0,0|60,1,0,0,0|70,1,0,0,0|80,1,0,0,0|90,1,0,0,0|150,1,0,0,0</t>
-  </si>
-  <si>
-    <t>毒龙鞭法</t>
-  </si>
-  <si>
-    <t>30,2,0,0,0|40,2,0,0,0|50,2,0,0,0|60,2,0,0,0|70,2,0,0,0|80,3,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|200,3,0,0,0</t>
-  </si>
-  <si>
-    <t>黄沙万里鞭</t>
-  </si>
-  <si>
-    <t>45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,3,0,0,0|135,3,0,0,0|150,3,0,0,0|165,3,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>雪怪</t>
-  </si>
-  <si>
-    <t>15,2,0,0,0|30,2,0,0,0|45,2,0,0,0|60,2,0,0,0|75,2,0,0,0|90,3,0,0,0|105,3,0,0,0|120,3,0,0,0|135,3,0,0,0|350,3,0,0,0</t>
-  </si>
-  <si>
-    <t>判官笔</t>
-  </si>
-  <si>
-    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,2,0,0,0|90,2,0,0,0|105,2,0,0,0|120,2,0,0,0|135,3,0,0,0|300,3,0,0,0</t>
-  </si>
-  <si>
-    <t>持棋盘</t>
-  </si>
-  <si>
-    <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
-  </si>
-  <si>
-    <t>大剪刀</t>
-  </si>
-  <si>
-    <t>15,1,0,0,0|30,1,0,0,0|45,1,0,0,0|60,1,0,0,0|75,1,0,0,0|90,1,0,0,0|105,1,0,0,0|120,1,0,0,0|135,1,0,0,0|350,1,0,0,0</t>
-  </si>
-  <si>
-    <t>持瑶琴</t>
-  </si>
-  <si>
-    <t>25,3,0,0,0|50,3,0,0,0|75,3,0,0,0|100,4,0,0,0|125,4,0,0,0|150,4,0,0,0|175,5,0,0,0|200,5,0,0,0|225,5,0,0,0|400,6,0,0,0</t>
-  </si>
-  <si>
-    <t>大蟒蛇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,1,0,0,0|250,1,0,0,0|300,1,0,0,0|350,1,0,0,0|400,1,0,0,0|450,1,0,0,0|500,1,0,0,0</t>
-  </si>
-  <si>
-    <t>金花杖法</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|300,1,0,0,0</t>
-  </si>
-  <si>
-    <t>神龙鹿杖</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|180,3,0,0,0|210,4,1,0,0|240,4,1,0,0|270,5,1,0,0|450,5,1,0,0</t>
-  </si>
-  <si>
-    <t>打狗棍法</t>
-  </si>
-  <si>
-    <t>30,2,0,0,0|60,2,0,0,0|90,2,0,0,0|120,2,0,0,0|150,2,0,0,0|180,2,0,0,0|210,2,0,0,0|240,2,0,0,0|270,2,0,0,0|450,2,0,0,0</t>
-  </si>
-  <si>
-    <t>五轮大法</t>
-  </si>
-  <si>
-    <t>40,1,1,0,0|80,1,1,0,0|120,1,1,0,0|160,1,1,0,0|200,1,1,0,0|240,1,1,0,0|280,1,2,0,0|320,1,2,0,0|360,1,2,0,0|500,1,2,0,0</t>
-  </si>
-  <si>
-    <t>松风剑法</t>
-  </si>
-  <si>
-    <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0|5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|50,1,0,0,0|90,1,0,0,0|120,1,0,0,0|200,1,0,0,0|300,1,0,0,0</t>
-  </si>
-  <si>
-    <t>狮子吼</t>
-  </si>
-  <si>
-    <t>25,3,1,0,0|50,3,1,0,0|75,3,1,0,0|100,4,2,0,0|125,4,2,0,0|150,4,2,0,0|200,5,3,0,0|300,5,3,0,0|400,5,3,0,0|500,6,4,0,0</t>
-  </si>
-  <si>
-    <t>九阳神功</t>
-  </si>
-  <si>
-    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
-    <t>用毒</t>
-  </si>
-  <si>
-    <t>解毒</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-  </si>
-  <si>
-    <t>暗器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -671,7 +677,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -687,157 +693,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,194 +716,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1060,263 +740,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,65 +774,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1723,29 +1117,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="112.044247787611" customWidth="1"/>
+    <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1814,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1837,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1860,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1883,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1906,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1929,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1952,7 +1346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1975,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1998,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2021,7 +1415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2044,7 +1438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2067,7 +1461,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2090,7 +1484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2113,7 +1507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2136,7 +1530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2159,7 +1553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2182,7 +1576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2205,7 +1599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2228,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2251,7 +1645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2274,7 +1668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2297,7 +1691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2320,7 +1714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2343,7 +1737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2366,7 +1760,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2386,15 +1780,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -2409,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -2432,15 +1826,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -2455,15 +1849,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -2478,15 +1872,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -2501,15 +1895,15 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -2524,15 +1918,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -2547,15 +1941,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -2570,15 +1964,15 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -2593,15 +1987,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
@@ -2616,15 +2010,15 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -2639,15 +2033,15 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -2662,15 +2056,15 @@
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -2685,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -2708,15 +2102,15 @@
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -2731,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -2754,15 +2148,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -2777,15 +2171,15 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -2800,15 +2194,15 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -2823,15 +2217,15 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -2846,15 +2240,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -2869,15 +2263,15 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -2892,15 +2286,15 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -2915,15 +2309,15 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -2938,15 +2332,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -2961,15 +2355,15 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -2984,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -3007,15 +2401,15 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
@@ -3030,15 +2424,15 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -3053,15 +2447,15 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -3076,15 +2470,15 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -3099,15 +2493,15 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -3122,15 +2516,15 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -3145,15 +2539,15 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -3168,15 +2562,15 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
@@ -3191,15 +2585,15 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -3214,15 +2608,15 @@
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -3237,15 +2631,15 @@
         <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
@@ -3260,15 +2654,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -3283,15 +2677,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -3306,15 +2700,15 @@
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -3329,15 +2723,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -3352,15 +2746,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -3375,15 +2769,15 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -3398,15 +2792,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -3421,15 +2815,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="3">
         <v>0</v>
@@ -3444,15 +2838,15 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
@@ -3467,15 +2861,15 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
@@ -3490,15 +2884,15 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -3513,15 +2907,15 @@
         <v>0</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -3536,15 +2930,15 @@
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
@@ -3559,15 +2953,15 @@
         <v>0</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
@@ -3582,15 +2976,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
@@ -3605,15 +2999,15 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -3628,15 +3022,15 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3">
         <v>0</v>
@@ -3651,15 +3045,15 @@
         <v>0</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" s="3">
         <v>0</v>
@@ -3674,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -3697,15 +3091,15 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C87" s="3">
         <v>0</v>
@@ -3720,15 +3114,15 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
@@ -3743,15 +3137,15 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
@@ -3766,15 +3160,15 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3">
         <v>0</v>
@@ -3789,15 +3183,15 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C91" s="3">
         <v>0</v>
@@ -3812,15 +3206,15 @@
         <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C92" s="3">
         <v>0</v>
@@ -3835,15 +3229,15 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
@@ -3858,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>90</v>
       </c>
@@ -3881,15 +3275,15 @@
         <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -3904,15 +3298,15 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -3927,15 +3321,15 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>93</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97" s="5">
         <v>2</v>
@@ -3950,15 +3344,15 @@
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>94</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C98" s="5">
         <v>3</v>
@@ -3973,15 +3367,15 @@
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>95</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C99" s="5">
         <v>4</v>
@@ -3996,15 +3390,15 @@
         <v>0</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" ht="13.85" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
@@ -4019,15 +3413,15 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>97</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C101" s="5">
         <v>5</v>
@@ -4042,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4054,7 +3448,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4063,7 +3457,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4072,7 +3466,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4081,7 +3475,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4090,7 +3484,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4099,7 +3493,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4108,7 +3502,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4117,7 +3511,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4126,7 +3520,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4135,7 +3529,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4144,7 +3538,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4153,7 +3547,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4162,7 +3556,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4171,7 +3565,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4180,7 +3574,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4189,7 +3583,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4198,7 +3592,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4207,7 +3601,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4216,7 +3610,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4225,7 +3619,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4234,7 +3628,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4243,7 +3637,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4252,7 +3646,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4261,7 +3655,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4270,7 +3664,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4279,7 +3673,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4288,7 +3682,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4297,7 +3691,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4306,7 +3700,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4315,7 +3709,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4324,7 +3718,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4333,7 +3727,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4342,7 +3736,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4351,7 +3745,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4360,7 +3754,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4369,7 +3763,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4378,7 +3772,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4387,7 +3781,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4396,7 +3790,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4405,7 +3799,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4414,7 +3808,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4423,7 +3817,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4432,7 +3826,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4441,7 +3835,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4450,7 +3844,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4459,7 +3853,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4468,7 +3862,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4477,7 +3871,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4486,7 +3880,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4495,7 +3889,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4504,7 +3898,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4513,7 +3907,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4522,7 +3916,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4531,7 +3925,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4540,7 +3934,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4549,7 +3943,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4558,7 +3952,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4567,7 +3961,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4576,7 +3970,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4585,7 +3979,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4594,7 +3988,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4603,7 +3997,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4612,7 +4006,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4621,7 +4015,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4630,7 +4024,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4639,7 +4033,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4648,7 +4042,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4657,7 +4051,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4666,7 +4060,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4675,7 +4069,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4684,7 +4078,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4693,7 +4087,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4702,7 +4096,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4711,7 +4105,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4720,7 +4114,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4729,7 +4123,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4738,7 +4132,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4747,7 +4141,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4756,7 +4150,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4765,7 +4159,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4774,7 +4168,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4783,7 +4177,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4792,7 +4186,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4801,7 +4195,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4810,7 +4204,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4819,7 +4213,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4828,7 +4222,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4837,7 +4231,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4846,7 +4240,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4855,7 +4249,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4864,7 +4258,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4873,7 +4267,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4882,7 +4276,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4891,7 +4285,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4900,7 +4294,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4909,7 +4303,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4918,7 +4312,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4927,7 +4321,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4936,7 +4330,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4945,7 +4339,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4954,7 +4348,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4964,8 +4358,8 @@
       <c r="G203" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双飞棍法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风烈焰掌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -961,10 +969,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -973,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -996,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1019,21 +1027,21 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1048,15 +1056,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1065,93 +1073,93 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>90</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>140</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>93</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>94</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
@@ -1168,13 +1176,13 @@
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
@@ -1189,23 +1197,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>97</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
@@ -2107,6 +2143,24 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="12300"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -29,7 +24,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -39,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -51,7 +44,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -61,7 +53,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -110,45 +101,99 @@
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
+    <t>打叶剑法</t>
+  </si>
+  <si>
+    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
+  </si>
+  <si>
+    <t>松风剑法</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
+  </si>
+  <si>
+    <t>醉灯剑法</t>
+  </si>
+  <si>
+    <t>100,2,0,0,0|140,2,0,0,0|180,2,0,0,0|220,3,1,0,0|270,3,1,0,0|320,3,1,0,0|370,4,1,0,0|420,4,2,0,0|470,4,2,0,0|700,5,2,0,0</t>
+  </si>
+  <si>
     <t>罗汉拳</t>
   </si>
   <si>
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,2,0,0,0|120,2,0,0,0|150,3,0,0,0|200,3,0,0,0|250,4,0,0,0|300,4,0,0,0|400,4,0,0,0|700,5,0,0,0</t>
+    <t>驱魔神掌</t>
   </si>
   <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
+    <t>护花功</t>
+  </si>
+  <si>
+    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
+    <t>震狼一击</t>
+  </si>
+  <si>
+    <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
+  </si>
+  <si>
+    <t>卷山狂刀</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
+  </si>
+  <si>
+    <t>双飞棍法</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
   </si>
   <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|90,2,0,0,0|100,2,0,0,0|110,2,0,0,0|120,2,0,0,0|125,2,0,0,0|250,3,0,0,0</t>
-  </si>
-  <si>
-    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
-  </si>
-  <si>
-    <t>20,1,0,0,0|40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|120,1,0,0,0|140,1,0,0,0|160,1,0,0,0|180,1,0,0,0|200,1,0,0,0</t>
+    <t>天星满月弓</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1200,5,3,0,0</t>
+  </si>
+  <si>
+    <t>破军枪法</t>
+  </si>
+  <si>
+    <t>80,2,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,1,0,0|400,4,2,0,0|450,4,2,0,0|600,5,2,0,0</t>
+  </si>
+  <si>
+    <t>疾风烈焰掌</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
+  </si>
+  <si>
+    <t>紫罂毒术</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
+  </si>
+  <si>
+    <t>落红剑法</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|150,4,2,0,0|200,5,2,0,0</t>
+  </si>
+  <si>
+    <t>牛角拳</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
   </si>
   <si>
     <t>野狼</t>
   </si>
   <si>
-    <t>5,1,0,0,0|10,1,0,0,0|15,1,0,0,0|20,1,0,0,0|25,1,0,0,0|30,1,0,0,0|35,1,0,0,0|40,1,0,0,0|45,1,0,0,0|150,1,0,0,0</t>
-  </si>
-  <si>
-    <t>松风剑法</t>
-  </si>
-  <si>
-    <t>30,2,0,0,0|50,2,0,0,0|70,2,0,0,0|90,3,0,0,0|100,3,0,0,0|110,3,0,0,0|120,4,0,0,0|125,4,0,0,0|130,4,0,0,0|200,5,0,0,0</t>
-  </si>
-  <si>
-    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
     <t>用毒</t>
   </si>
   <si>
@@ -159,85 +204,19 @@
   </si>
   <si>
     <t>暗器</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉灯剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>打叶剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷山狂刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>震狼一击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护花功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱魔神掌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>破军枪法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛角拳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天星满月弓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫罂毒术</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>落红剑法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1,0,0,0|26,1,0,0,0|32,1,0,0,0|37,1,0,0,0|42,1,0,0,0|46,2,0,0,0|50,2,0,0,0|53,2,0,0,0|56,2,0,0,0|98,3,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,2,0,0,0|40,2,0,0,0|60,2,0,0,0|80,2,0,0,0|100,3,0,0,0|120,3,0,0,0|140,3,0,0,0|160,3,0,0,0|180,4,0,0,0|350,4,0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>双飞棍法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾风烈焰掌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,37 +227,173 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +406,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -315,21 +616,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -345,25 +888,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -692,29 +1279,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="4" max="4" width="10.4955752212389" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -760,7 +1348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -783,35 +1371,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -820,21 +1408,21 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -843,21 +1431,21 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -872,61 +1460,61 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>32</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -935,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>41</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -964,15 +1552,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>42</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -987,84 +1575,84 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>60</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>61</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>42</v>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>62</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>70</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>45</v>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1079,38 +1667,38 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>71</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>90</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1125,15 +1713,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>140</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1148,102 +1736,102 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="6">
         <v>93</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="6">
         <v>94</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>10</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="6">
         <v>95</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6">
         <v>4</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
         <v>10</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="6">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6">
         <v>5</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>10</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1252,7 +1840,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1261,7 +1849,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1270,7 +1858,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1279,7 +1867,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1288,7 +1876,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1297,7 +1885,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1306,7 +1894,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1315,7 +1903,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1324,7 +1912,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1333,7 +1921,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1342,7 +1930,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1351,7 +1939,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1360,7 +1948,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1369,7 +1957,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1378,7 +1966,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1387,7 +1975,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1396,7 +1984,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1405,7 +1993,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1414,7 +2002,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1423,7 +2011,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1432,7 +2020,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1441,7 +2029,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1450,7 +2038,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1459,7 +2047,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1468,7 +2056,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1477,7 +2065,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1486,7 +2074,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1495,7 +2083,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1504,7 +2092,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1513,7 +2101,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1522,7 +2110,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1531,7 +2119,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1540,7 +2128,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1549,7 +2137,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1558,7 +2146,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1567,7 +2155,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1576,7 +2164,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1585,7 +2173,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1594,7 +2182,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1603,7 +2191,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1612,7 +2200,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1621,7 +2209,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1630,7 +2218,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1639,7 +2227,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1648,7 +2236,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1657,7 +2245,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1666,7 +2254,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1675,7 +2263,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1684,7 +2272,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1693,7 +2281,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1702,7 +2290,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1711,7 +2299,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1720,7 +2308,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1729,7 +2317,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1738,7 +2326,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1747,7 +2335,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1756,7 +2344,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1765,7 +2353,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1774,7 +2362,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1783,7 +2371,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1792,7 +2380,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1801,7 +2389,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1810,7 +2398,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1819,7 +2407,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1828,7 +2416,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1837,7 +2425,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1846,7 +2434,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1855,7 +2443,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1864,7 +2452,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1873,7 +2461,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1882,7 +2470,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1891,7 +2479,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1900,7 +2488,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1909,7 +2497,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1918,7 +2506,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1927,7 +2515,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1936,7 +2524,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1945,7 +2533,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1954,7 +2542,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1963,7 +2551,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1972,7 +2560,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1981,7 +2569,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1990,7 +2578,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1999,7 +2587,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2008,7 +2596,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2017,7 +2605,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2026,7 +2614,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2035,7 +2623,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2044,7 +2632,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2053,7 +2641,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2062,7 +2650,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2071,7 +2659,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2080,7 +2668,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2089,7 +2677,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2098,7 +2686,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2107,7 +2695,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2116,7 +2704,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2125,7 +2713,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2134,7 +2722,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2143,7 +2731,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2152,7 +2740,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2162,8 +2750,8 @@
       <c r="G126" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -205,18 +210,20 @@
   <si>
     <t>暗器</t>
   </si>
+  <si>
+    <t>青竹医术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -227,7 +234,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,157 +250,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,194 +287,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -616,267 +311,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,66 +344,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,30 +690,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="$A15:$XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.4955752212389" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1371,7 +782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1394,7 +805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -1417,7 +828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1440,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -1463,7 +874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -1486,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -1509,7 +920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -1532,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41</v>
       </c>
@@ -1555,7 +966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42</v>
       </c>
@@ -1578,7 +989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>60</v>
       </c>
@@ -1601,7 +1012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>61</v>
       </c>
@@ -1624,7 +1035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>62</v>
       </c>
@@ -1647,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>70</v>
       </c>
@@ -1670,7 +1081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>71</v>
       </c>
@@ -1693,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>90</v>
       </c>
@@ -1716,84 +1127,84 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
+        <v>120</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>140</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>160</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>93</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="6">
-        <v>94</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="6">
-        <v>95</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -1808,15 +1219,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
@@ -1831,25 +1242,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>95</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>97</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1858,7 +1297,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1867,7 +1306,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1876,7 +1315,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1885,7 +1324,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1894,7 +1333,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1903,7 +1342,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1912,7 +1351,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1921,7 +1360,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1930,7 +1369,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1939,7 +1378,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1948,7 +1387,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1957,7 +1396,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1966,7 +1405,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1975,7 +1414,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1984,7 +1423,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1993,7 +1432,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2002,7 +1441,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2011,7 +1450,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2020,7 +1459,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2029,7 +1468,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2038,7 +1477,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2047,7 +1486,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2056,7 +1495,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2065,7 +1504,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2074,7 +1513,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2083,7 +1522,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2092,7 +1531,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2101,7 +1540,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2110,7 +1549,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2119,7 +1558,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2128,7 +1567,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2137,7 +1576,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2146,7 +1585,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2155,7 +1594,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2164,7 +1603,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2173,7 +1612,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2182,7 +1621,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2191,7 +1630,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2200,7 +1639,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2209,7 +1648,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2218,7 +1657,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2227,7 +1666,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2236,7 +1675,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2245,7 +1684,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2254,7 +1693,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2263,7 +1702,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2272,7 +1711,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2281,7 +1720,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2290,7 +1729,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2299,7 +1738,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2308,7 +1747,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2317,7 +1756,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2326,7 +1765,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2335,7 +1774,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2344,7 +1783,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2353,7 +1792,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2362,7 +1801,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2371,7 +1810,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2380,7 +1819,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2389,7 +1828,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2398,7 +1837,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2407,7 +1846,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2416,7 +1855,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2425,7 +1864,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2434,7 +1873,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2443,7 +1882,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2452,7 +1891,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2461,7 +1900,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2470,7 +1909,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2479,7 +1918,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2488,7 +1927,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2497,7 +1936,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2506,7 +1945,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2515,7 +1954,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2524,7 +1963,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2533,7 +1972,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2542,7 +1981,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2551,7 +1990,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2560,7 +1999,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2569,7 +2008,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2578,7 +2017,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2587,7 +2026,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2596,7 +2035,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2605,7 +2044,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2614,7 +2053,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2623,7 +2062,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2632,7 +2071,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2641,7 +2080,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2650,7 +2089,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2659,7 +2098,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2668,7 +2107,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2677,7 +2116,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2686,7 +2125,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2695,7 +2134,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2704,7 +2143,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2713,7 +2152,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2722,7 +2161,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2731,7 +2170,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2740,7 +2179,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2749,9 +2188,27 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -154,9 +154,6 @@
     <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
   </si>
   <si>
-    <t>双飞棍法</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
   </si>
   <si>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>黑熊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔云双飞剑</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +700,7 @@
   <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,7 +972,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -986,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -994,7 +995,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1009,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,7 +1018,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1032,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,7 +1041,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1055,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,7 +1064,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1078,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,7 +1087,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1101,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1109,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,7 +1133,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1155,7 +1156,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1170,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1178,7 +1179,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1193,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1201,7 +1202,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1224,7 +1225,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
@@ -1247,7 +1248,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -1270,7 +1271,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6">
         <v>5</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -106,9 +106,6 @@
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
-    <t>打叶剑法</t>
-  </si>
-  <si>
     <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
   </si>
   <si>
@@ -217,6 +214,10 @@
   </si>
   <si>
     <t>翔云双飞剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫叶剑法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +701,7 @@
   <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -803,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -826,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,7 +835,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -849,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -857,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -872,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -880,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -895,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -903,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -918,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -926,7 +927,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -941,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,7 +950,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -964,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -972,7 +973,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -987,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -995,7 +996,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1010,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1018,7 +1019,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1033,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1041,7 +1042,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1056,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,7 +1065,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1079,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,7 +1088,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1102,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1110,7 +1111,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,7 +1134,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1148,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,7 +1157,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,7 +1180,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1194,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1203,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -1217,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1225,7 +1226,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
@@ -1240,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1248,7 +1249,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -1263,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1271,7 +1272,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6">
         <v>5</v>
@@ -1286,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -29,6 +29,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -38,6 +39,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -49,6 +51,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -58,6 +61,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -175,9 +179,6 @@
     <t>紫罂毒术</t>
   </si>
   <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
-  </si>
-  <si>
     <t>落红剑法</t>
   </si>
   <si>
@@ -218,6 +219,29 @@
   </si>
   <si>
     <t>扫叶剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|160,1,0,0,0|190,1,0,0,0|220,1,0,0,0|250,1,0,0,0|450,1,0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
+  </si>
+  <si>
+    <t>无名指法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -242,23 +266,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -698,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -973,7 +1001,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1080,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1088,7 +1116,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1103,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,7 +1139,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1126,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,7 +1162,7 @@
         <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1157,7 +1185,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1172,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,7 +1208,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1195,64 +1223,64 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>93</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>180</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
         <v>10</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>94</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>27</v>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>181</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
@@ -1269,13 +1297,13 @@
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
@@ -1290,23 +1318,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>95</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>97</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -2208,6 +2264,24 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -29,7 +24,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -39,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -51,7 +44,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -61,7 +53,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -110,7 +101,10 @@
     <t>0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0|0,1,0,0,0</t>
   </si>
   <si>
-    <t>100,3,1,0,0|150,3,1,0,0|200,3,1,0,0|250,5,2,0,0|300,5,2,0,0|350,5,2,0,0|400,7,3,0,0|450,7,3,0,0|500,7,3,0,0|800,7,3,0,0</t>
+    <t>扫叶剑法</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
   </si>
   <si>
     <t>松风剑法</t>
@@ -152,7 +146,10 @@
     <t>卷山狂刀</t>
   </si>
   <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,2,0,0|290,4,2,0,0|370,4,2,0,0|500,4,3,0,0</t>
+  </si>
+  <si>
+    <t>翔云双飞剑</t>
   </si>
   <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
@@ -161,7 +158,7 @@
     <t>天星满月弓</t>
   </si>
   <si>
-    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1200,5,3,0,0</t>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1200,4,3,0,0</t>
   </si>
   <si>
     <t>破军枪法</t>
@@ -179,6 +176,9 @@
     <t>紫罂毒术</t>
   </si>
   <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,4,0,0,0|450,4,0,0,0</t>
+  </si>
+  <si>
     <t>落红剑法</t>
   </si>
   <si>
@@ -191,9 +191,27 @@
     <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
   </si>
   <si>
+    <t>青竹医术</t>
+  </si>
+  <si>
     <t>野狼</t>
   </si>
   <si>
+    <t>黑熊</t>
+  </si>
+  <si>
+    <t>毒蛇</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|160,1,0,0,0|190,1,0,0,0|220,1,0,0,0|250,1,0,0,0|450,1,0,0,0</t>
+  </si>
+  <si>
+    <t>无名指法</t>
+  </si>
+  <si>
+    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
+  </si>
+  <si>
     <t>用毒</t>
   </si>
   <si>
@@ -204,52 +222,19 @@
   </si>
   <si>
     <t>暗器</t>
-  </si>
-  <si>
-    <t>青竹医术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑熊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>翔云双飞剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫叶剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒蛇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,5,0,0,0|450,5,0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|160,1,0,0,0|190,1,0,0,0|220,1,0,0,0|250,1,0,0,0|450,1,0,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
-  </si>
-  <si>
-    <t>无名指法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -260,51 +245,179 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +430,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -341,25 +640,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,24 +915,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -720,30 +1303,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -766,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,7 +1372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -812,18 +1395,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <v>8</v>
@@ -832,15 +1415,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -855,15 +1438,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -878,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -901,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -924,15 +1507,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -947,15 +1530,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -970,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
@@ -993,15 +1576,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1016,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>8</v>
@@ -1039,15 +1622,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1062,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1085,15 +1668,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1108,15 +1691,15 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1131,15 +1714,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1154,15 +1737,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>120</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1177,15 +1760,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>140</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1200,15 +1783,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>160</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>50</v>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1223,15 +1806,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>180</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1246,15 +1829,15 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>181</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1269,15 +1852,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="6">
         <v>93</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -1292,15 +1875,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
       <c r="A26" s="6">
         <v>94</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
@@ -1315,15 +1898,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
       <c r="A27" s="6">
         <v>95</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6">
         <v>4</v>
@@ -1338,15 +1921,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
       <c r="A28" s="6">
         <v>97</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" s="6">
         <v>5</v>
@@ -1361,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1373,7 +1956,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1382,7 +1965,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1391,7 +1974,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1400,7 +1983,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1409,7 +1992,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1418,7 +2001,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1427,7 +2010,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1436,7 +2019,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1445,7 +2028,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1454,7 +2037,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1463,7 +2046,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1472,7 +2055,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1481,7 +2064,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1490,7 +2073,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1499,7 +2082,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1508,7 +2091,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1517,7 +2100,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1526,7 +2109,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1535,7 +2118,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1544,7 +2127,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1553,7 +2136,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1562,7 +2145,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1571,7 +2154,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1580,7 +2163,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1589,7 +2172,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1598,7 +2181,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1607,7 +2190,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1616,7 +2199,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1625,7 +2208,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1634,7 +2217,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1643,7 +2226,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1652,7 +2235,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1661,7 +2244,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1670,7 +2253,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1679,7 +2262,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1688,7 +2271,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1697,7 +2280,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1706,7 +2289,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1715,7 +2298,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1724,7 +2307,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1733,7 +2316,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1742,7 +2325,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1751,7 +2334,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1760,7 +2343,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1769,7 +2352,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1778,7 +2361,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1787,7 +2370,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1796,7 +2379,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1805,7 +2388,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1814,7 +2397,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1823,7 +2406,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1832,7 +2415,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1841,7 +2424,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1850,7 +2433,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1859,7 +2442,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1868,7 +2451,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1877,7 +2460,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1886,7 +2469,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1895,7 +2478,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1904,7 +2487,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1913,7 +2496,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1922,7 +2505,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1931,7 +2514,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1940,7 +2523,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1949,7 +2532,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1958,7 +2541,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1967,7 +2550,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1976,7 +2559,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1985,7 +2568,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1994,7 +2577,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2003,7 +2586,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2012,7 +2595,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2021,7 +2604,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2030,7 +2613,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2039,7 +2622,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2048,7 +2631,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2057,7 +2640,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2066,7 +2649,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2075,7 +2658,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2084,7 +2667,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2093,7 +2676,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2102,7 +2685,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2111,7 +2694,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2120,7 +2703,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2129,7 +2712,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2138,7 +2721,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2147,7 +2730,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2156,7 +2739,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2165,7 +2748,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2174,7 +2757,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2183,7 +2766,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2192,7 +2775,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2201,7 +2784,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2210,7 +2793,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2219,7 +2802,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2228,7 +2811,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2237,7 +2820,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2246,7 +2829,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2255,7 +2838,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2264,7 +2847,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2273,7 +2856,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2283,8 +2866,8 @@
       <c r="G130" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -24,6 +29,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -33,6 +39,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -44,6 +51,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -53,6 +61,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -223,18 +232,20 @@
   <si>
     <t>暗器</t>
   </si>
+  <si>
+    <t>摩柯观音泪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -245,179 +256,37 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,194 +299,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -640,263 +323,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,65 +357,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1303,30 +700,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1395,7 +792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1418,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -1441,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1464,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -1487,7 +884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -1510,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>32</v>
       </c>
@@ -1533,7 +930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -1556,7 +953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41</v>
       </c>
@@ -1579,7 +976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42</v>
       </c>
@@ -1602,7 +999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>60</v>
       </c>
@@ -1625,7 +1022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>61</v>
       </c>
@@ -1648,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>62</v>
       </c>
@@ -1671,7 +1068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>70</v>
       </c>
@@ -1694,7 +1091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>71</v>
       </c>
@@ -1717,81 +1114,81 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
+        <v>72</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>90</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>120</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>10</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>140</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3">
-        <v>160</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1809,84 +1206,84 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
+        <v>160</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>180</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="3">
         <v>10</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>181</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="6">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>93</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="6">
-        <v>94</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
@@ -1901,15 +1298,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
@@ -1924,15 +1321,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1947,16 +1344,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>97</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1965,7 +1376,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1974,7 +1385,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1983,7 +1394,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1992,7 +1403,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2001,7 +1412,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2010,7 +1421,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2019,7 +1430,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2028,7 +1439,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2037,7 +1448,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2046,7 +1457,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2055,7 +1466,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2064,7 +1475,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2073,7 +1484,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2082,7 +1493,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2091,7 +1502,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2100,7 +1511,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2109,7 +1520,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2118,7 +1529,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2127,7 +1538,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2136,7 +1547,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2145,7 +1556,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2154,7 +1565,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2163,7 +1574,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2172,7 +1583,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2181,7 +1592,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2190,7 +1601,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2199,7 +1610,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2208,7 +1619,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2217,7 +1628,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2226,7 +1637,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2235,7 +1646,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2244,7 +1655,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2253,7 +1664,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2262,7 +1673,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2271,7 +1682,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2280,7 +1691,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2289,7 +1700,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2298,7 +1709,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2307,7 +1718,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2316,7 +1727,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2325,7 +1736,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2334,7 +1745,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2343,7 +1754,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2352,7 +1763,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2361,7 +1772,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2370,7 +1781,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2379,7 +1790,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2388,7 +1799,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2397,7 +1808,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2406,7 +1817,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2415,7 +1826,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2424,7 +1835,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2433,7 +1844,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2442,7 +1853,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2451,7 +1862,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2460,7 +1871,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2469,7 +1880,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2478,7 +1889,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2487,7 +1898,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2496,7 +1907,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2505,7 +1916,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2514,7 +1925,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2523,7 +1934,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2532,7 +1943,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2541,7 +1952,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2550,7 +1961,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2559,7 +1970,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2568,7 +1979,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2577,7 +1988,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2586,7 +1997,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2595,7 +2006,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2604,7 +2015,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2613,7 +2024,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2622,7 +2033,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2631,7 +2042,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2640,7 +2051,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2649,7 +2060,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2658,7 +2069,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2667,7 +2078,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2676,7 +2087,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2685,7 +2096,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2694,7 +2105,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2703,7 +2114,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2712,7 +2123,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2721,7 +2132,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2730,7 +2141,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2739,7 +2150,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2748,7 +2159,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2757,7 +2168,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2766,7 +2177,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2775,7 +2186,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2784,7 +2195,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2793,7 +2204,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2802,7 +2213,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2811,7 +2222,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2820,7 +2231,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2829,7 +2240,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2838,7 +2249,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2847,7 +2258,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2856,7 +2267,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2865,9 +2276,18 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -134,9 +134,6 @@
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
-    <t>驱魔神掌</t>
-  </si>
-  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
@@ -238,6 +235,10 @@
   </si>
   <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱魔神掌</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +710,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +890,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -904,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -912,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -927,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -950,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -958,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -973,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -981,7 +982,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -996,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1004,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1019,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1027,7 +1028,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1042,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1065,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1073,7 +1074,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1088,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1096,7 +1097,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1111,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1119,7 +1120,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1134,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,7 +1143,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,7 +1166,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1180,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1188,7 +1189,7 @@
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1203,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1211,7 +1212,7 @@
         <v>160</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1226,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1234,7 +1235,7 @@
         <v>180</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1249,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,7 +1258,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1272,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1280,7 +1281,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1295,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1303,7 +1304,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
@@ -1318,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1326,7 +1327,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
@@ -1341,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1350,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>5</v>
@@ -1364,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -116,9 +116,6 @@
     <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
   </si>
   <si>
-    <t>松风剑法</t>
-  </si>
-  <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
   </si>
   <si>
@@ -239,6 +236,10 @@
   </si>
   <si>
     <t>驱魔神掌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥风剑法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +711,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,8 +821,8 @@
       <c r="A6" s="3">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -836,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -859,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -867,7 +868,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -882,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -890,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -913,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -928,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -936,7 +937,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -951,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -959,7 +960,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -974,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -982,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -997,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1005,7 +1006,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1020,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1028,7 +1029,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1043,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1051,7 +1052,7 @@
         <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,7 +1075,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1089,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,7 +1098,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1112,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1120,7 +1121,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1135,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1143,7 +1144,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1158,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1166,7 +1167,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1181,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1189,7 +1190,7 @@
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1204,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1212,7 +1213,7 @@
         <v>160</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,7 +1236,7 @@
         <v>180</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1250,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1258,7 +1259,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1273,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1281,7 +1282,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
@@ -1296,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1304,7 +1305,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>3</v>
@@ -1319,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1327,7 +1328,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
@@ -1342,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1350,7 +1351,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6">
         <v>5</v>
@@ -1365,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>桥风剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏虎拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,10 +942,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -946,274 +954,274 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>140</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>120</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1233,10 +1241,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>180</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>160</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1245,70 +1253,70 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
+        <v>180</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>181</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>93</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
@@ -1325,13 +1333,13 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1348,13 +1356,13 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -1369,14 +1377,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>97</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -2287,6 +2309,15 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -176,13 +176,7 @@
     <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
-    <t>紫罂毒术</t>
-  </si>
-  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,4,0,0,0|450,4,0,0,0</t>
-  </si>
-  <si>
-    <t>落红剑法</t>
   </si>
   <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|150,4,2,0,0|200,5,2,0,0</t>
@@ -248,6 +242,14 @@
   </si>
   <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罂毒术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>落红剑法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +721,7 @@
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -830,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -945,7 +947,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -960,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1106,7 +1108,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1121,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1129,7 +1131,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1144,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1152,7 +1154,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1167,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1175,7 +1177,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1198,7 +1200,7 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -1221,7 +1223,7 @@
         <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1236,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1244,7 +1246,7 @@
         <v>160</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1259,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1267,7 +1269,7 @@
         <v>180</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1282,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1290,7 +1292,7 @@
         <v>181</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1305,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1315,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -1336,7 +1338,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
@@ -1359,7 +1361,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
@@ -1382,7 +1384,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6">
         <v>5</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -29,7 +24,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -39,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -51,7 +44,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -61,7 +53,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -116,6 +107,9 @@
     <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
   </si>
   <si>
+    <t>桥风剑法</t>
+  </si>
+  <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
   </si>
   <si>
@@ -131,6 +125,9 @@
     <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
   </si>
   <si>
+    <t>驱魔神掌</t>
+  </si>
+  <si>
     <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
@@ -140,6 +137,12 @@
     <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
   </si>
   <si>
+    <t>伏虎拳</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
+  </si>
+  <si>
     <t>震狼一击</t>
   </si>
   <si>
@@ -176,18 +179,36 @@
     <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
+    <t>紫罂毒术</t>
+  </si>
+  <si>
     <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,4,0,0,0|450,4,0,0,0</t>
   </si>
   <si>
+    <t>落红剑法</t>
+  </si>
+  <si>
     <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|150,4,2,0,0|200,5,2,0,0</t>
   </si>
   <si>
+    <t>摩柯观音泪</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
+  </si>
+  <si>
     <t>牛角拳</t>
   </si>
   <si>
     <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
   </si>
   <si>
+    <t>隔山打牛掌</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,2,0,0,0|150,3,0,0,0|200,4,1,0,0|250,4,1,0,0|300,5,1,0,0|350,5,1,0,0|400,6,1,0,0|450,6,1,0,0|600,7,1,0,0</t>
+  </si>
+  <si>
     <t>青竹医术</t>
   </si>
   <si>
@@ -219,45 +240,19 @@
   </si>
   <si>
     <t>暗器</t>
-  </si>
-  <si>
-    <t>摩柯观音泪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱魔神掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥风剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏虎拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫罂毒术</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>落红剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,37 +263,179 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +448,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,21 +658,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -369,21 +934,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -712,30 +1321,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.7522123893805" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -781,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -804,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -827,12 +1436,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -847,15 +1456,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -870,15 +1479,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -893,15 +1502,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -916,15 +1525,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -939,15 +1548,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -962,15 +1571,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -985,15 +1594,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1008,15 +1617,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1031,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1054,15 +1663,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1077,15 +1686,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1100,15 +1709,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1123,15 +1732,15 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1146,15 +1755,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1169,15 +1778,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1192,156 +1801,156 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
         <v>120</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
         <v>140</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
         <v>160</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
         <v>180</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>10</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
         <v>181</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>5</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="6">
         <v>93</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="6">
         <v>2</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>94</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1353,18 +1962,18 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
       <c r="A29" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -1376,18 +1985,18 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
       <c r="A30" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -1399,19 +2008,33 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="6">
+        <v>97</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>10</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1420,7 +2043,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1429,7 +2052,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1438,7 +2061,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1447,7 +2070,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1456,7 +2079,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1465,7 +2088,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1474,7 +2097,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1483,7 +2106,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1492,7 +2115,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1501,7 +2124,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1510,7 +2133,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1519,7 +2142,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1528,7 +2151,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1537,7 +2160,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1546,7 +2169,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1555,7 +2178,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1564,7 +2187,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1573,7 +2196,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1582,7 +2205,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1591,7 +2214,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1600,7 +2223,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1609,7 +2232,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1618,7 +2241,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1627,7 +2250,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1636,7 +2259,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1645,7 +2268,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1654,7 +2277,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1663,7 +2286,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1672,7 +2295,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1681,7 +2304,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1690,7 +2313,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1699,7 +2322,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1708,7 +2331,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1717,7 +2340,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1726,7 +2349,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1735,7 +2358,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1744,7 +2367,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1753,7 +2376,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1762,7 +2385,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1771,7 +2394,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1780,7 +2403,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1789,7 +2412,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1798,7 +2421,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1807,7 +2430,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1816,7 +2439,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1825,7 +2448,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1834,7 +2457,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1843,7 +2466,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1852,7 +2475,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1861,7 +2484,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1870,7 +2493,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1879,7 +2502,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1888,7 +2511,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1897,7 +2520,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1906,7 +2529,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1915,7 +2538,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1924,7 +2547,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1933,7 +2556,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1942,7 +2565,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1951,7 +2574,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1960,7 +2583,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1969,7 +2592,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1978,7 +2601,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1987,7 +2610,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1996,7 +2619,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2005,7 +2628,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2014,7 +2637,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2023,7 +2646,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2032,7 +2655,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2041,7 +2664,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2050,7 +2673,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2059,7 +2682,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2068,7 +2691,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2077,7 +2700,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2086,7 +2709,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2095,7 +2718,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2104,7 +2727,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2113,7 +2736,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2122,7 +2745,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2131,7 +2754,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2140,7 +2763,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2149,7 +2772,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2158,7 +2781,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2167,7 +2790,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2176,7 +2799,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2185,7 +2808,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2194,7 +2817,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2203,7 +2826,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2212,7 +2835,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2221,7 +2844,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2230,7 +2853,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2239,7 +2862,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2248,7 +2871,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2257,7 +2880,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2266,7 +2889,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2275,7 +2898,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2284,7 +2907,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2293,7 +2916,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2302,7 +2925,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2311,7 +2934,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2320,9 +2943,18 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -24,6 +29,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -33,6 +39,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -44,6 +51,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -53,6 +61,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -104,155 +113,158 @@
     <t>扫叶剑法</t>
   </si>
   <si>
+    <t>桥风剑法</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
+  </si>
+  <si>
+    <t>醉灯剑法</t>
+  </si>
+  <si>
+    <t>100,2,0,0,0|140,2,0,0,0|180,2,0,0,0|220,3,1,0,0|270,3,1,0,0|320,3,1,0,0|370,4,1,0,0|420,4,2,0,0|470,4,2,0,0|700,5,2,0,0</t>
+  </si>
+  <si>
+    <t>罗汉拳</t>
+  </si>
+  <si>
+    <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
+  </si>
+  <si>
+    <t>驱魔神掌</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
+    <t>护花功</t>
+  </si>
+  <si>
+    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
+    <t>伏虎拳</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
+  </si>
+  <si>
+    <t>震狼一击</t>
+  </si>
+  <si>
+    <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
+  </si>
+  <si>
+    <t>卷山狂刀</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,2,0,0|290,4,2,0,0|370,4,2,0,0|500,4,3,0,0</t>
+  </si>
+  <si>
+    <t>翔云双飞剑</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
+  </si>
+  <si>
+    <t>天星满月弓</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1200,4,3,0,0</t>
+  </si>
+  <si>
+    <t>破军枪法</t>
+  </si>
+  <si>
+    <t>80,2,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,1,0,0|400,4,2,0,0|450,4,2,0,0|600,5,2,0,0</t>
+  </si>
+  <si>
+    <t>疾风烈焰掌</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
+  </si>
+  <si>
+    <t>紫罂毒术</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,4,0,0,0|450,4,0,0,0</t>
+  </si>
+  <si>
+    <t>落红剑法</t>
+  </si>
+  <si>
+    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|150,4,2,0,0|200,5,2,0,0</t>
+  </si>
+  <si>
+    <t>摩柯观音泪</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
+  </si>
+  <si>
+    <t>牛角拳</t>
+  </si>
+  <si>
+    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
+  </si>
+  <si>
+    <t>隔山打牛掌</t>
+  </si>
+  <si>
+    <t>50,1,0,0,0|100,2,0,0,0|150,3,0,0,0|200,4,1,0,0|250,4,1,0,0|300,5,1,0,0|350,5,1,0,0|400,6,1,0,0|450,6,1,0,0|600,7,1,0,0</t>
+  </si>
+  <si>
+    <t>青竹医术</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>黑熊</t>
+  </si>
+  <si>
+    <t>毒蛇</t>
+  </si>
+  <si>
+    <t>40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|160,1,0,0,0|190,1,0,0,0|220,1,0,0,0|250,1,0,0,0|450,1,0,0,0</t>
+  </si>
+  <si>
+    <t>无名指法</t>
+  </si>
+  <si>
+    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
+  </si>
+  <si>
+    <t>用毒</t>
+  </si>
+  <si>
+    <t>解毒</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>暗器</t>
+  </si>
+  <si>
+    <t>惊鹭刀法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
-  </si>
-  <si>
-    <t>桥风剑法</t>
-  </si>
-  <si>
-    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|140,4,2,0,0|300,5,2,0,0</t>
-  </si>
-  <si>
-    <t>醉灯剑法</t>
-  </si>
-  <si>
-    <t>100,2,0,0,0|140,2,0,0,0|180,2,0,0,0|220,3,1,0,0|270,3,1,0,0|320,3,1,0,0|370,4,1,0,0|420,4,2,0,0|470,4,2,0,0|700,5,2,0,0</t>
-  </si>
-  <si>
-    <t>罗汉拳</t>
-  </si>
-  <si>
-    <t>30,1,0,0,0|60,1,0,0,0|90,1,0,0,0|120,1,0,0,0|150,1,0,0,0|180,1,0,0,0|210,1,0,0,0|240,1,0,0,0|270,1,0,0,0|300,1,0,0,0</t>
-  </si>
-  <si>
-    <t>驱魔神掌</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,2,0,0|400,3,2,0,0|450,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
-    <t>护花功</t>
-  </si>
-  <si>
-    <t>80,1,0,0,0|120,1,0,0,0|160,1,0,0,0|200,2,1,0,0|250,2,1,0,0|310,2,1,0,0|370,3,2,0,0|460,3,2,0,0|560,3,2,0,0|700,4,3,0,0</t>
-  </si>
-  <si>
-    <t>伏虎拳</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,1,0,0|250,2,1,0,0|300,2,1,0,0|350,3,1,0,0|400,3,1,0,0|450,3,1,0,0|600,4,1,0,0</t>
-  </si>
-  <si>
-    <t>震狼一击</t>
-  </si>
-  <si>
-    <t>100,2,0,0,0|180,2,0,0,0|240,2,0,0,0|300,3,0,0,0|360,3,0,0,0|420,3,0,0,0|480,4,0,0,0|540,4,0,0,0|600,4,0,0,0|900,5,0,0,0</t>
-  </si>
-  <si>
-    <t>卷山狂刀</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,2,0,0|290,4,2,0,0|370,4,2,0,0|500,4,3,0,0</t>
-  </si>
-  <si>
-    <t>翔云双飞剑</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,1,0,0,0|200,2,0,0,0|250,2,0,0,0|300,2,0,0,0|350,3,0,0,0|400,3,0,0,0|450,3,0,0,0|600,4,0,0,0</t>
-  </si>
-  <si>
-    <t>天星满月弓</t>
-  </si>
-  <si>
-    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1200,4,3,0,0</t>
-  </si>
-  <si>
-    <t>破军枪法</t>
-  </si>
-  <si>
-    <t>80,2,0,0,0|120,2,0,0,0|160,2,0,0,0|200,3,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,1,0,0|400,4,2,0,0|450,4,2,0,0|600,5,2,0,0</t>
-  </si>
-  <si>
-    <t>疾风烈焰掌</t>
-  </si>
-  <si>
-    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
-  </si>
-  <si>
-    <t>紫罂毒术</t>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,2,0,0,0|100,2,0,0,0|130,3,0,0,0|160,3,0,0,0|190,4,0,0,0|220,4,0,0,0|250,4,0,0,0|450,4,0,0,0</t>
-  </si>
-  <si>
-    <t>落红剑法</t>
-  </si>
-  <si>
-    <t>50,2,0,0,0|70,2,0,0,0|80,2,0,0,0|90,3,1,0,0|100,3,1,0,0|110,3,1,0,0|120,4,1,0,0|130,4,2,0,0|150,4,2,0,0|200,5,2,0,0</t>
-  </si>
-  <si>
-    <t>摩柯观音泪</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,1,0,0,0|150,2,0,0,0|200,2,1,0,0|250,3,1,0,0|300,3,1,0,0|350,4,2,0,0|400,4,2,0,0|450,5,2,0,0|700,5,2,0,0</t>
-  </si>
-  <si>
-    <t>牛角拳</t>
-  </si>
-  <si>
-    <t>10,1,0,0,0|15,1,0,0,0|25,1,0,0,0|50,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|200,1,0,0,0|250,1,0,0,0|400,1,0,0,0</t>
-  </si>
-  <si>
-    <t>隔山打牛掌</t>
-  </si>
-  <si>
-    <t>50,1,0,0,0|100,2,0,0,0|150,3,0,0,0|200,4,1,0,0|250,4,1,0,0|300,5,1,0,0|350,5,1,0,0|400,6,1,0,0|450,6,1,0,0|600,7,1,0,0</t>
-  </si>
-  <si>
-    <t>青竹医术</t>
-  </si>
-  <si>
-    <t>野狼</t>
-  </si>
-  <si>
-    <t>黑熊</t>
-  </si>
-  <si>
-    <t>毒蛇</t>
-  </si>
-  <si>
-    <t>40,1,0,0,0|60,1,0,0,0|80,1,0,0,0|100,1,0,0,0|130,1,0,0,0|160,1,0,0,0|190,1,0,0,0|220,1,0,0,0|250,1,0,0,0|450,1,0,0,0</t>
-  </si>
-  <si>
-    <t>无名指法</t>
-  </si>
-  <si>
-    <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
-  </si>
-  <si>
-    <t>用毒</t>
-  </si>
-  <si>
-    <t>解毒</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>暗器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|700,4,3,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -263,179 +275,37 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,194 +318,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -658,263 +342,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -934,65 +376,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1321,30 +719,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="15.7522123893805" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1413,7 +811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1433,15 +831,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1456,15 +854,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1479,15 +877,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1502,15 +900,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1525,15 +923,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -1548,15 +946,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1571,15 +969,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1594,15 +992,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1617,15 +1015,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1640,15 +1038,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1663,15 +1061,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1686,15 +1084,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1709,15 +1107,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1732,15 +1130,15 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1755,15 +1153,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1778,15 +1176,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1801,15 +1199,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1824,15 +1222,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>120</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -1847,15 +1245,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>140</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1870,15 +1268,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>160</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1893,15 +1291,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>180</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1916,15 +1314,15 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>181</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1939,41 +1337,41 @@
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>190</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>93</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="6">
-        <v>93</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="6">
-        <v>94</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="6">
-        <v>3</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -1985,18 +1383,18 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -2008,18 +1406,18 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -2031,19 +1429,33 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>97</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2052,7 +1464,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2061,7 +1473,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2070,7 +1482,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2079,7 +1491,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2088,7 +1500,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2097,7 +1509,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2106,7 +1518,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2115,7 +1527,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2124,7 +1536,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2133,7 +1545,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2142,7 +1554,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2151,7 +1563,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2160,7 +1572,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2169,7 +1581,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2178,7 +1590,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2187,7 +1599,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2196,7 +1608,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2205,7 +1617,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2214,7 +1626,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2223,7 +1635,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2232,7 +1644,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2241,7 +1653,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2250,7 +1662,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2259,7 +1671,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2268,7 +1680,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2277,7 +1689,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2286,7 +1698,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2295,7 +1707,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2304,7 +1716,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2313,7 +1725,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2322,7 +1734,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2331,7 +1743,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2340,7 +1752,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2349,7 +1761,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2358,7 +1770,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2367,7 +1779,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2376,7 +1788,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2385,7 +1797,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2394,7 +1806,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2403,7 +1815,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2412,7 +1824,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2421,7 +1833,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2430,7 +1842,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2439,7 +1851,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2448,7 +1860,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2457,7 +1869,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2466,7 +1878,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2475,7 +1887,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2484,7 +1896,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2493,7 +1905,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2502,7 +1914,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2511,7 +1923,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2520,7 +1932,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2529,7 +1941,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2538,7 +1950,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2547,7 +1959,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2556,7 +1968,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2565,7 +1977,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2574,7 +1986,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2583,7 +1995,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2592,7 +2004,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2601,7 +2013,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2610,7 +2022,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2619,7 +2031,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2628,7 +2040,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2637,7 +2049,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2646,7 +2058,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2655,7 +2067,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2664,7 +2076,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2673,7 +2085,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2682,7 +2094,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2691,7 +2103,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2700,7 +2112,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2709,7 +2121,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2718,7 +2130,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2727,7 +2139,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2736,7 +2148,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2745,7 +2157,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2754,7 +2166,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2763,7 +2175,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2772,7 +2184,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2781,7 +2193,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2790,7 +2202,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2799,7 +2211,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2808,7 +2220,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2817,7 +2229,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2826,7 +2238,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2835,7 +2247,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2844,7 +2256,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2853,7 +2265,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2862,7 +2274,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2871,7 +2283,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2880,7 +2292,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2889,7 +2301,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2898,7 +2310,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2907,7 +2319,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2916,7 +2328,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2925,7 +2337,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2934,7 +2346,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2943,7 +2355,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2952,9 +2364,18 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/武功.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Jyx2Configs.Jyx2ConfigSkill</t>
   </si>
@@ -29,7 +24,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>I</t>
@@ -39,7 +33,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -51,7 +44,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -61,7 +53,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ame</t>
@@ -83,6 +74,9 @@
     <t>Levels</t>
   </si>
   <si>
+    <t>DisplayFileName</t>
+  </si>
+  <si>
     <t>代号</t>
   </si>
   <si>
@@ -104,6 +98,9 @@
     <t>技能等级配置(攻击力，移动范围，杀伤范围，加内力，杀伤内力)</t>
   </si>
   <si>
+    <t>显示文件名</t>
+  </si>
+  <si>
     <t>普通攻击</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
     <t>扫叶剑法</t>
   </si>
   <si>
+    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
+  </si>
+  <si>
     <t>桥风剑法</t>
   </si>
   <si>
@@ -236,6 +236,12 @@
     <t>30,3,0,0,0|70,3,0,0,0|120,3,0,0,0|180,4,0,0,0|250,4,0,0,0|330,5,0,0,0|420,5,0,0,0|520,6,0,0,0|630,6,0,0,0|800,7,0,0,0</t>
   </si>
   <si>
+    <t>惊鹭刀法</t>
+  </si>
+  <si>
+    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|700,4,3,0,0</t>
+  </si>
+  <si>
     <t>用毒</t>
   </si>
   <si>
@@ -246,25 +252,19 @@
   </si>
   <si>
     <t>暗器</t>
-  </si>
-  <si>
-    <t>惊鹭刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|800,4,3,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,2,1,0,0|150,2,1,0,0|200,3,1,0,0|250,3,1,0,0|300,3,2,0,0|350,3,2,0,0|400,3,3,0,0|450,3,3,0,0|500,4,3,0,0|700,4,3,0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -275,37 +275,179 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,8 +460,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -342,21 +670,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -376,21 +946,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,30 +1333,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -764,36 +1378,42 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -808,15 +1428,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H4" t="str">
+        <f>B4</f>
+        <v>普通攻击</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -831,15 +1455,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H32" si="0">B5</f>
+        <v>扫叶剑法</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -854,15 +1482,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>桥风剑法</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -877,15 +1509,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>醉灯剑法</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -900,15 +1536,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>罗汉拳</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -923,15 +1563,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>驱魔神掌</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -946,15 +1590,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>护花功</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -969,15 +1617,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>伏虎拳</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -992,15 +1644,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>震狼一击</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1015,15 +1671,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>卷山狂刀</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1038,15 +1698,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>翔云双飞剑</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1061,15 +1725,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>天星满月弓</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1084,15 +1752,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>破军枪法</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1107,15 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>疾风烈焰掌</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1130,15 +1806,19 @@
         <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>紫罂毒术</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1153,15 +1833,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>落红剑法</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -1176,15 +1860,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>摩柯观音泪</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1199,15 +1887,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>牛角拳</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1222,15 +1914,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>隔山打牛掌</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>120</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -1245,15 +1941,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>青竹医术</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>140</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1268,15 +1968,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>野狼</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>160</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1291,15 +1995,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>黑熊</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>180</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -1314,15 +2022,19 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>毒蛇</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>181</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1337,15 +2049,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>无名指法</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1360,15 +2076,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>惊鹭刀法</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="6">
         <v>93</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
@@ -1383,15 +2103,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>用毒</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:8">
       <c r="A30" s="6">
         <v>94</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6">
         <v>3</v>
@@ -1406,15 +2130,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>解毒</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:8">
       <c r="A31" s="6">
         <v>95</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6">
         <v>4</v>
@@ -1429,15 +2157,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>医疗</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:8">
       <c r="A32" s="6">
         <v>97</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6">
         <v>5</v>
@@ -1452,10 +2184,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>暗器</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1464,7 +2200,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1473,7 +2209,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1482,7 +2218,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1491,7 +2227,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1500,7 +2236,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1509,7 +2245,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1518,7 +2254,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1527,7 +2263,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1536,7 +2272,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1545,7 +2281,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1554,7 +2290,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1563,7 +2299,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1572,7 +2308,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1581,7 +2317,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1590,7 +2326,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1599,7 +2335,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1608,7 +2344,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1617,7 +2353,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1626,7 +2362,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1635,7 +2371,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1644,7 +2380,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1653,7 +2389,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1662,7 +2398,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1671,7 +2407,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1680,7 +2416,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1689,7 +2425,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1698,7 +2434,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1707,7 +2443,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1716,7 +2452,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1725,7 +2461,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1734,7 +2470,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1743,7 +2479,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1752,7 +2488,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1761,7 +2497,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1770,7 +2506,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1779,7 +2515,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1788,7 +2524,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1797,7 +2533,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1806,7 +2542,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1815,7 +2551,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1824,7 +2560,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1833,7 +2569,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1842,7 +2578,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1851,7 +2587,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1860,7 +2596,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1869,7 +2605,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1878,7 +2614,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1887,7 +2623,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1896,7 +2632,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1905,7 +2641,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1914,7 +2650,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1923,7 +2659,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1932,7 +2668,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1941,7 +2677,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1950,7 +2686,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1959,7 +2695,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1968,7 +2704,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1977,7 +2713,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1986,7 +2722,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1995,7 +2731,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2004,7 +2740,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2013,7 +2749,7 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2022,7 +2758,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2031,7 +2767,7 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2040,7 +2776,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2049,7 +2785,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2058,7 +2794,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2067,7 +2803,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2076,7 +2812,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2085,7 +2821,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2094,7 +2830,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2103,7 +2839,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2112,7 +2848,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2121,7 +2857,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2130,7 +2866,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2139,7 +2875,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2148,7 +2884,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2157,7 +2893,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2166,7 +2902,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2175,7 +2911,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2184,7 +2920,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2193,7 +2929,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2202,7 +2938,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2211,7 +2947,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2220,7 +2956,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2229,7 +2965,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2238,7 +2974,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2247,7 +2983,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2256,7 +2992,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2265,7 +3001,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2274,7 +3010,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2283,7 +3019,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2292,7 +3028,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2301,7 +3037,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2310,7 +3046,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2319,7 +3055,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2328,7 +3064,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2337,7 +3073,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2346,7 +3082,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2355,7 +3091,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2364,7 +3100,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2374,8 +3110,8 @@
       <c r="G134" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>